--- a/SCH-STH/Baseline Mapping/Angola/September 2021/ao_sch_sth_baseline_2_child_kap_202109.xlsx
+++ b/SCH-STH/Baseline Mapping/Angola/September 2021/ao_sch_sth_baseline_2_child_kap_202109.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="1139">
   <si>
     <t>type</t>
   </si>
@@ -2901,12 +2901,21 @@
     <t>Samba Caju</t>
   </si>
   <si>
+    <t>Aldeia Nova</t>
+  </si>
+  <si>
     <t>Bindo</t>
   </si>
   <si>
+    <t>Cambondo</t>
+  </si>
+  <si>
     <t>Cassualaia .</t>
   </si>
   <si>
+    <t>Cassualala</t>
+  </si>
+  <si>
     <t>Cerca</t>
   </si>
   <si>
@@ -2922,7 +2931,10 @@
     <t>Massangano</t>
   </si>
   <si>
-    <t>Mauá</t>
+    <t>Massangsno</t>
+  </si>
+  <si>
+    <t>Maua</t>
   </si>
   <si>
     <t>Ndaiatan do</t>
@@ -2961,13 +2973,22 @@
     <t>Tango</t>
   </si>
   <si>
+    <t>Zenza do Itombe</t>
+  </si>
+  <si>
+    <t>Colegio N. 1S03 Samba Caju</t>
+  </si>
+  <si>
     <t>Colegio N. 808 - 4 de Janeiro</t>
   </si>
   <si>
     <t>Comiexto Escolar Manuel N, 814 Pedro Pacavira do Alto - C</t>
   </si>
   <si>
-    <t>Complexo Escolar: N'1004- Antonio Jacinto do Amaral Mar</t>
+    <t>Compexo Escolar N. 403 Al. Nova</t>
+  </si>
+  <si>
+    <t>Complexo Escolar: N.1004- Antonio Jacinto do Amaral Mar</t>
   </si>
   <si>
     <t>Complexo Escolar 28 de Agosto N. 205</t>
@@ -2976,24 +2997,39 @@
     <t>Complexo Escolar Cacolomboio N. 1006</t>
   </si>
   <si>
+    <t>Complexo Escolar Dom Bosco N.38</t>
+  </si>
+  <si>
     <t>Complexo escolar Missionario St. A, Kahenda N. 1805</t>
   </si>
   <si>
     <t>Complexo Escolar N.1017 - Caleba</t>
   </si>
   <si>
+    <t>Complexo Escolar N.14 Posse</t>
+  </si>
+  <si>
     <t>Complexo Escolar N.36 Paulo Teixeira Jorge</t>
   </si>
   <si>
     <t>Complexo Escolar N.7 Hoji - Ya - Henda</t>
   </si>
   <si>
-    <t>Complexo Escolar N. 15 Evaristo Domingos Kimba</t>
+    <t>Complexo Escolar N. 1015 Cambondo</t>
+  </si>
+  <si>
+    <t>Complexo Escolar N. 1203 - Comandante Sekouture</t>
   </si>
   <si>
     <t>Complexo Escolar N. 216 - Tango - Sede</t>
   </si>
   <si>
+    <t>Complexo Escolar N. 218 - Maua - Sede</t>
+  </si>
+  <si>
+    <t>Complexo Escolar N. 34 Deolinda Rodrigues</t>
+  </si>
+  <si>
     <t>Complexo Escolar N. 3 Metodista Unida</t>
   </si>
   <si>
@@ -3003,19 +3039,31 @@
     <t>Complexo Escolar N. 811 Comandante Stona Alto - Dondo</t>
   </si>
   <si>
+    <t>Complexo Escolar N. 812 Soba GInbongo Alto - Dondo</t>
+  </si>
+  <si>
     <t>Complexo Escolar N. 820 Comandante SarabI</t>
   </si>
   <si>
+    <t>Complexo Escolar N. 821 Joao Cardoso Jordao</t>
+  </si>
+  <si>
     <t>Complexo Escolar N. 830 Mucozo</t>
   </si>
   <si>
-    <t>Complexo Escolar N 20 Augusto Ngangula</t>
+    <t>Complexo Escolar N 16 Catome de Baixo</t>
+  </si>
+  <si>
+    <t>Complexo Escolar N 23 - Km13 - Zanga</t>
   </si>
   <si>
     <t>Complexo Escolar N 24 Kirima Hola - Zanga</t>
   </si>
   <si>
-    <t>Escola para nomear</t>
+    <t>Esc. Prlmer. Missionaria Santo Hilarlao N. 1009</t>
+  </si>
+  <si>
+    <t>Escolar do Ensino Primario N, 1008 B - Beta</t>
   </si>
   <si>
     <t>Escola do Ensino Primario N. 818 Ngola Yetu</t>
@@ -3024,12 +3072,21 @@
     <t>Escola do Ensino Primario Quiaposse N. 1005</t>
   </si>
   <si>
+    <t>Escola do ensino Primario Santa Maria N, 1014</t>
+  </si>
+  <si>
     <t>Escola Primaria 827 km 34 Nova Cassoalala</t>
   </si>
   <si>
+    <t>Escola Primaria 837 Nova Cassoalala - Massangano</t>
+  </si>
+  <si>
     <t>Escola Primaria N, 12 Vista</t>
   </si>
   <si>
+    <t>Escola Primaria N, 1603 - Dundo Ya Mutulo I</t>
+  </si>
+  <si>
     <t>Escola Primaria N, 1607 Pambas</t>
   </si>
   <si>
@@ -3039,6 +3096,9 @@
     <t>Escola Primaria N. 1601 - Ngola Nhl - Nlii</t>
   </si>
   <si>
+    <t>Escola Primaria N. 1602 - Imbondeiros</t>
+  </si>
+  <si>
     <t>Escola Primaria N. 1605 - Maquela</t>
   </si>
   <si>
@@ -3051,34 +3111,55 @@
     <t>Escola Primaria N. 1807 - Ngolome</t>
   </si>
   <si>
+    <t>Escola Primaria N. 1808 - Zamba</t>
+  </si>
+  <si>
     <t>Escola Primaria N. 1815 - K. Kasseno</t>
   </si>
   <si>
     <t>Escola Primaria N. 1817 - Calaiala</t>
   </si>
   <si>
-    <t>Escola Primaria N. 213 - Bairro Povo Longe (KN01)</t>
-  </si>
-  <si>
-    <t>Escola Primaria N. 213 - Bairro Povo Longe (KN02)</t>
-  </si>
-  <si>
-    <t>Escola Primaria N. 216 - Bairro Kanaltanjungo (KN03)</t>
+    <t>Escola Primaria N. 213 - Bairro Povo Longe (KN05)</t>
+  </si>
+  <si>
+    <t>Escola Primaria N. 213 - Bairro Povo Longe (KN07)</t>
+  </si>
+  <si>
+    <t>Escola Primaria N. 214 - Bairro Bindo</t>
+  </si>
+  <si>
+    <t>Escola Primaria N. 216 - Bairro Kanaltanjungo (KN01)</t>
   </si>
   <si>
     <t>Escola Primaria N. 216 - Bairro Kanaltanjungo (KN04)</t>
   </si>
   <si>
-    <t>Escola Primaria N. 221 - Bairro Kangulungo</t>
+    <t>Escola Primaria N. 221 - Bairro Kangulungo (KN02)</t>
+  </si>
+  <si>
+    <t>Escola Primaria N. 221 - Bairro Kangulungo (KNX51)</t>
+  </si>
+  <si>
+    <t>Escola Primaria N. 228 - Bairro Zage</t>
   </si>
   <si>
     <t>Escola Primaria N. 238 - Bairro Kimaco</t>
   </si>
   <si>
+    <t>Escola Primaria N. 608 - Cahombo</t>
+  </si>
+  <si>
     <t>Escola Primaria N. 609 - Pimbi</t>
   </si>
   <si>
-    <t>Escola Prinnaria N. 5 Jose Maria Ferraz dos Santos</t>
+    <t>Escola Primaria N. 835 - Zenza - do - Itombe</t>
+  </si>
+  <si>
+    <t>Escola Primaria N 19 Kitata</t>
+  </si>
+  <si>
+    <t>Escola Prinnaria N. 5 Jose María Ferraz dos Santos</t>
   </si>
   <si>
     <t>Escota de Magisterio N. 29 Comandante Benedito - Ndalata</t>
@@ -3087,10 +3168,13 @@
     <t>Escota Primaria N. 237 - Bairro Bejs</t>
   </si>
   <si>
-    <t>Maua</t>
-  </si>
-  <si>
-    <t>Liceu de Cambamba N. 809 Andre Pass! Caçasse zona -1</t>
+    <t>Instituto Politecnico N. 1 - Dom Anastaclo Cahangode</t>
+  </si>
+  <si>
+    <t>Instituto Politecnico N. 807 Chico Mendellev - Cambambe</t>
+  </si>
+  <si>
+    <t>Liceu de Cambamba N. 809 Andre Pass Caçasse zona -1</t>
   </si>
   <si>
     <t>Liceu N. 35 Dr. Antonio Agostinho Neto - Sassa</t>
@@ -3105,7 +3189,7 @@
     <t>Magisterio do Luinga N. 202</t>
   </si>
   <si>
-    <t>Magisterio N. 802 Mauricio Domingos - Dondo</t>
+    <t>Magisterio N. 802 Maurício Domingos - Dondo</t>
   </si>
   <si>
     <t>code_school</t>
@@ -3253,6 +3337,78 @@
   </si>
   <si>
     <t>KN48</t>
+  </si>
+  <si>
+    <t>KNX49</t>
+  </si>
+  <si>
+    <t>KNX50</t>
+  </si>
+  <si>
+    <t>KNX51</t>
+  </si>
+  <si>
+    <t>KNX52</t>
+  </si>
+  <si>
+    <t>KNX53</t>
+  </si>
+  <si>
+    <t>KNX54</t>
+  </si>
+  <si>
+    <t>KNX55</t>
+  </si>
+  <si>
+    <t>KNX56</t>
+  </si>
+  <si>
+    <t>KNX57</t>
+  </si>
+  <si>
+    <t>KNX58</t>
+  </si>
+  <si>
+    <t>KNX59</t>
+  </si>
+  <si>
+    <t>KNX60</t>
+  </si>
+  <si>
+    <t>KNX61</t>
+  </si>
+  <si>
+    <t>KNX62</t>
+  </si>
+  <si>
+    <t>KNX63</t>
+  </si>
+  <si>
+    <t>KNX64</t>
+  </si>
+  <si>
+    <t>KNX65</t>
+  </si>
+  <si>
+    <t>KNX66</t>
+  </si>
+  <si>
+    <t>KNX67</t>
+  </si>
+  <si>
+    <t>KNX68</t>
+  </si>
+  <si>
+    <t>KNX69</t>
+  </si>
+  <si>
+    <t>KNX70</t>
+  </si>
+  <si>
+    <t>KNX71</t>
+  </si>
+  <si>
+    <t>KNX72</t>
   </si>
   <si>
     <t>form_title</t>
@@ -3286,10 +3442,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3336,7 +3492,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3350,8 +3521,62 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3365,39 +3590,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3406,21 +3600,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3435,37 +3614,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3480,13 +3629,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3513,7 +3662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3525,7 +3680,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3537,49 +3740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3591,7 +3752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3609,43 +3776,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3657,19 +3806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3687,13 +3824,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3752,6 +3889,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3770,17 +3940,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3810,175 +3971,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6854,12 +6991,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I458"/>
+  <dimension ref="A1:I511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A328" sqref="A328:I458"/>
+      <selection pane="bottomLeft" activeCell="A328" sqref="A328:I511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11053,16 +11190,16 @@
         <v>473</v>
       </c>
       <c r="B340" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="C340" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="D340" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="E340" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="G340" t="s">
         <v>953</v>
@@ -11073,19 +11210,19 @@
         <v>473</v>
       </c>
       <c r="B341" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="C341" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="D341" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E341" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="G341" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -11105,7 +11242,7 @@
         <v>962</v>
       </c>
       <c r="G342" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -11165,7 +11302,7 @@
         <v>965</v>
       </c>
       <c r="G345" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -11185,7 +11322,7 @@
         <v>966</v>
       </c>
       <c r="G346" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -11225,7 +11362,7 @@
         <v>968</v>
       </c>
       <c r="G348" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -11245,7 +11382,7 @@
         <v>969</v>
       </c>
       <c r="G349" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -11265,7 +11402,7 @@
         <v>970</v>
       </c>
       <c r="G350" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -11285,7 +11422,7 @@
         <v>971</v>
       </c>
       <c r="G351" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -11305,7 +11442,7 @@
         <v>972</v>
       </c>
       <c r="G352" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -11325,7 +11462,7 @@
         <v>973</v>
       </c>
       <c r="G353" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -11345,7 +11482,7 @@
         <v>974</v>
       </c>
       <c r="G354" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -11365,7 +11502,7 @@
         <v>975</v>
       </c>
       <c r="G355" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -11385,7 +11522,7 @@
         <v>976</v>
       </c>
       <c r="G356" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -11405,7 +11542,7 @@
         <v>977</v>
       </c>
       <c r="G357" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -11425,7 +11562,7 @@
         <v>978</v>
       </c>
       <c r="G358" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -11445,7 +11582,7 @@
         <v>979</v>
       </c>
       <c r="G359" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -11465,122 +11602,107 @@
         <v>980</v>
       </c>
       <c r="G360" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" t="s">
+        <v>473</v>
+      </c>
+      <c r="B361" t="s">
+        <v>981</v>
+      </c>
+      <c r="C361" t="s">
+        <v>981</v>
+      </c>
+      <c r="D361" t="s">
+        <v>981</v>
+      </c>
+      <c r="E361" t="s">
+        <v>981</v>
+      </c>
+      <c r="G361" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" t="s">
+        <v>473</v>
+      </c>
+      <c r="B362" t="s">
+        <v>982</v>
+      </c>
+      <c r="C362" t="s">
+        <v>982</v>
+      </c>
+      <c r="D362" t="s">
+        <v>982</v>
+      </c>
+      <c r="E362" t="s">
+        <v>982</v>
+      </c>
+      <c r="G362" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" t="s">
+        <v>473</v>
+      </c>
+      <c r="B363" t="s">
+        <v>983</v>
+      </c>
+      <c r="C363" t="s">
+        <v>983</v>
+      </c>
+      <c r="D363" t="s">
+        <v>983</v>
+      </c>
+      <c r="E363" t="s">
+        <v>983</v>
+      </c>
+      <c r="G363" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" t="s">
+        <v>473</v>
+      </c>
+      <c r="B364" t="s">
+        <v>984</v>
+      </c>
+      <c r="C364" t="s">
+        <v>984</v>
+      </c>
+      <c r="D364" t="s">
+        <v>984</v>
+      </c>
+      <c r="E364" t="s">
+        <v>984</v>
+      </c>
+      <c r="G364" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
-      <c r="A362" t="s">
-        <v>474</v>
-      </c>
-      <c r="B362" t="s">
-        <v>981</v>
-      </c>
-      <c r="C362" t="s">
-        <v>981</v>
-      </c>
-      <c r="D362" t="s">
-        <v>981</v>
-      </c>
-      <c r="E362" t="s">
-        <v>981</v>
-      </c>
-      <c r="G362" t="s">
+    <row r="365" spans="1:7">
+      <c r="A365" t="s">
+        <v>473</v>
+      </c>
+      <c r="B365" t="s">
+        <v>985</v>
+      </c>
+      <c r="C365" t="s">
+        <v>985</v>
+      </c>
+      <c r="D365" t="s">
+        <v>985</v>
+      </c>
+      <c r="E365" t="s">
+        <v>985</v>
+      </c>
+      <c r="G365" t="s">
         <v>955</v>
-      </c>
-      <c r="H362" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
-      <c r="A363" t="s">
-        <v>474</v>
-      </c>
-      <c r="B363" t="s">
-        <v>982</v>
-      </c>
-      <c r="C363" t="s">
-        <v>982</v>
-      </c>
-      <c r="D363" t="s">
-        <v>982</v>
-      </c>
-      <c r="E363" t="s">
-        <v>982</v>
-      </c>
-      <c r="G363" t="s">
-        <v>955</v>
-      </c>
-      <c r="H363" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="A364" t="s">
-        <v>474</v>
-      </c>
-      <c r="B364" t="s">
-        <v>983</v>
-      </c>
-      <c r="C364" t="s">
-        <v>983</v>
-      </c>
-      <c r="D364" t="s">
-        <v>983</v>
-      </c>
-      <c r="E364" t="s">
-        <v>983</v>
-      </c>
-      <c r="G364" t="s">
-        <v>957</v>
-      </c>
-      <c r="H364" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="A365" t="s">
-        <v>474</v>
-      </c>
-      <c r="B365" t="s">
-        <v>984</v>
-      </c>
-      <c r="C365" t="s">
-        <v>984</v>
-      </c>
-      <c r="D365" t="s">
-        <v>984</v>
-      </c>
-      <c r="E365" t="s">
-        <v>984</v>
-      </c>
-      <c r="G365" t="s">
-        <v>952</v>
-      </c>
-      <c r="H365" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
-      <c r="A366" t="s">
-        <v>474</v>
-      </c>
-      <c r="B366" t="s">
-        <v>985</v>
-      </c>
-      <c r="C366" t="s">
-        <v>985</v>
-      </c>
-      <c r="D366" t="s">
-        <v>985</v>
-      </c>
-      <c r="E366" t="s">
-        <v>985</v>
-      </c>
-      <c r="G366" t="s">
-        <v>957</v>
-      </c>
-      <c r="H366" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11603,7 +11725,7 @@
         <v>960</v>
       </c>
       <c r="H367" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11623,10 +11745,10 @@
         <v>987</v>
       </c>
       <c r="G368" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H368" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11646,10 +11768,10 @@
         <v>988</v>
       </c>
       <c r="G369" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H369" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11669,10 +11791,10 @@
         <v>989</v>
       </c>
       <c r="G370" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="H370" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11692,10 +11814,10 @@
         <v>990</v>
       </c>
       <c r="G371" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H371" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11718,7 +11840,7 @@
         <v>952</v>
       </c>
       <c r="H372" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11738,10 +11860,10 @@
         <v>992</v>
       </c>
       <c r="G373" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H373" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11761,10 +11883,10 @@
         <v>993</v>
       </c>
       <c r="G374" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="H374" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11784,10 +11906,10 @@
         <v>994</v>
       </c>
       <c r="G375" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="H375" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11807,10 +11929,10 @@
         <v>995</v>
       </c>
       <c r="G376" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="H376" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11830,10 +11952,10 @@
         <v>996</v>
       </c>
       <c r="G377" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H377" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11856,7 +11978,7 @@
         <v>956</v>
       </c>
       <c r="H378" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11879,7 +12001,7 @@
         <v>956</v>
       </c>
       <c r="H379" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11902,7 +12024,7 @@
         <v>957</v>
       </c>
       <c r="H380" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11922,10 +12044,10 @@
         <v>1000</v>
       </c>
       <c r="G381" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="H381" t="s">
-        <v>973</v>
+        <v>982</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11945,10 +12067,10 @@
         <v>1001</v>
       </c>
       <c r="G382" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="H382" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11968,10 +12090,10 @@
         <v>1002</v>
       </c>
       <c r="G383" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="H383" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11994,7 +12116,7 @@
         <v>956</v>
       </c>
       <c r="H384" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12014,10 +12136,10 @@
         <v>1004</v>
       </c>
       <c r="G385" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H385" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12037,10 +12159,10 @@
         <v>1005</v>
       </c>
       <c r="G386" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="H386" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12060,10 +12182,10 @@
         <v>1006</v>
       </c>
       <c r="G387" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="H387" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12083,10 +12205,10 @@
         <v>1007</v>
       </c>
       <c r="G388" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="H388" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12106,10 +12228,10 @@
         <v>1008</v>
       </c>
       <c r="G389" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="H389" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12129,10 +12251,10 @@
         <v>1009</v>
       </c>
       <c r="G390" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="H390" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12152,10 +12274,10 @@
         <v>1010</v>
       </c>
       <c r="G391" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="H391" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12175,10 +12297,10 @@
         <v>1011</v>
       </c>
       <c r="G392" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H392" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12198,10 +12320,10 @@
         <v>1012</v>
       </c>
       <c r="G393" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H393" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12221,10 +12343,10 @@
         <v>1013</v>
       </c>
       <c r="G394" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="H394" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12244,7 +12366,7 @@
         <v>1014</v>
       </c>
       <c r="G395" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="H395" t="s">
         <v>980</v>
@@ -12267,10 +12389,10 @@
         <v>1015</v>
       </c>
       <c r="G396" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="H396" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12290,10 +12412,10 @@
         <v>1016</v>
       </c>
       <c r="G397" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="H397" t="s">
-        <v>961</v>
+        <v>977</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12313,10 +12435,10 @@
         <v>1017</v>
       </c>
       <c r="G398" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="H398" t="s">
-        <v>961</v>
+        <v>980</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12336,10 +12458,10 @@
         <v>1018</v>
       </c>
       <c r="G399" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="H399" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12359,10 +12481,10 @@
         <v>1019</v>
       </c>
       <c r="G400" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H400" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12382,10 +12504,10 @@
         <v>1020</v>
       </c>
       <c r="G401" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H401" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12408,7 +12530,7 @@
         <v>956</v>
       </c>
       <c r="H402" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12428,10 +12550,10 @@
         <v>1022</v>
       </c>
       <c r="G403" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="H403" t="s">
-        <v>1023</v>
+        <v>981</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12439,22 +12561,22 @@
         <v>474</v>
       </c>
       <c r="B404" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C404" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D404" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E404" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G404" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="H404" t="s">
-        <v>964</v>
+        <v>981</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12462,22 +12584,22 @@
         <v>474</v>
       </c>
       <c r="B405" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C405" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D405" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E405" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G405" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="H405" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12485,22 +12607,22 @@
         <v>474</v>
       </c>
       <c r="B406" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C406" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D406" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E406" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G406" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="H406" t="s">
-        <v>953</v>
+        <v>981</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12508,22 +12630,22 @@
         <v>474</v>
       </c>
       <c r="B407" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C407" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D407" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E407" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G407" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="H407" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12531,22 +12653,22 @@
         <v>474</v>
       </c>
       <c r="B408" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C408" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D408" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E408" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G408" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="H408" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12554,959 +12676,1046 @@
         <v>474</v>
       </c>
       <c r="B409" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G409" t="s">
+        <v>958</v>
+      </c>
+      <c r="H409" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
+      <c r="A410" t="s">
+        <v>474</v>
+      </c>
+      <c r="B410" t="s">
         <v>1029</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C410" t="s">
         <v>1029</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D410" t="s">
         <v>1029</v>
       </c>
-      <c r="E409" t="s">
+      <c r="E410" t="s">
         <v>1029</v>
       </c>
-      <c r="G409" t="s">
+      <c r="G410" t="s">
+        <v>960</v>
+      </c>
+      <c r="H410" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
+      <c r="A411" t="s">
+        <v>474</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G411" t="s">
+        <v>960</v>
+      </c>
+      <c r="H411" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="A412" t="s">
+        <v>474</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G412" t="s">
+        <v>960</v>
+      </c>
+      <c r="H412" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" t="s">
+        <v>474</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G413" t="s">
+        <v>960</v>
+      </c>
+      <c r="H413" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="A414" t="s">
+        <v>474</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G414" t="s">
+        <v>960</v>
+      </c>
+      <c r="H414" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
+      <c r="A415" t="s">
+        <v>474</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G415" t="s">
+        <v>952</v>
+      </c>
+      <c r="H415" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
+      <c r="A416" t="s">
+        <v>474</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G416" t="s">
+        <v>952</v>
+      </c>
+      <c r="H416" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="A417" t="s">
+        <v>474</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G417" t="s">
+        <v>952</v>
+      </c>
+      <c r="H417" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
+      <c r="A418" t="s">
+        <v>474</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G418" t="s">
+        <v>952</v>
+      </c>
+      <c r="H418" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
+      <c r="A419" t="s">
+        <v>474</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G419" t="s">
+        <v>952</v>
+      </c>
+      <c r="H419" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="A420" t="s">
+        <v>474</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G420" t="s">
+        <v>952</v>
+      </c>
+      <c r="H420" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
+      <c r="A421" t="s">
+        <v>474</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G421" t="s">
+        <v>952</v>
+      </c>
+      <c r="H421" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
+      <c r="A422" t="s">
+        <v>474</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G422" t="s">
+        <v>952</v>
+      </c>
+      <c r="H422" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423" t="s">
+        <v>474</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G423" t="s">
+        <v>952</v>
+      </c>
+      <c r="H423" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="A424" t="s">
+        <v>474</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G424" t="s">
+        <v>954</v>
+      </c>
+      <c r="H424" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="A425" t="s">
+        <v>474</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G425" t="s">
+        <v>954</v>
+      </c>
+      <c r="H425" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="A426" t="s">
+        <v>474</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G426" t="s">
         <v>955</v>
       </c>
-      <c r="H409" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9">
-      <c r="A411" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C411" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D411" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E411" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I411" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9">
-      <c r="A412" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C412" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D412" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E412" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I412" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9">
-      <c r="A413" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C413" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D413" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E413" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I413" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9">
-      <c r="A414" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C414" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D414" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E414" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I414" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9">
-      <c r="A415" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C415" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D415" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E415" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I415" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9">
-      <c r="A416" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C416" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D416" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E416" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I416" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9">
-      <c r="A417" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C417" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D417" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E417" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I417" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9">
-      <c r="A418" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C418" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E418" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I418" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9">
-      <c r="A419" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C419" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D419" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E419" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I419" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9">
-      <c r="A420" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C420" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D420" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E420" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I420" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9">
-      <c r="A421" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D421" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E421" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I421" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9">
-      <c r="A422" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C422" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D422" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E422" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I422" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9">
-      <c r="A423" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C423" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D423" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E423" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I423" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9">
-      <c r="A424" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C424" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D424" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E424" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I424" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9">
-      <c r="A425" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B425" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C425" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D425" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E425" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I425" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9">
-      <c r="A426" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B426" t="s">
+      <c r="H426" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427" t="s">
+        <v>474</v>
+      </c>
+      <c r="B427" t="s">
         <v>1046</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C427" t="s">
         <v>1046</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D427" t="s">
         <v>1046</v>
       </c>
-      <c r="E426" t="s">
+      <c r="E427" t="s">
         <v>1046</v>
       </c>
-      <c r="I426" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9">
-      <c r="A427" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B427" t="s">
+      <c r="G427" t="s">
+        <v>956</v>
+      </c>
+      <c r="H427" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428" t="s">
+        <v>474</v>
+      </c>
+      <c r="B428" t="s">
         <v>1047</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C428" t="s">
         <v>1047</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D428" t="s">
         <v>1047</v>
       </c>
-      <c r="E427" t="s">
+      <c r="E428" t="s">
         <v>1047</v>
       </c>
-      <c r="I427" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9">
-      <c r="A428" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B428" t="s">
+      <c r="G428" t="s">
+        <v>956</v>
+      </c>
+      <c r="H428" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" t="s">
+        <v>474</v>
+      </c>
+      <c r="B429" t="s">
         <v>1048</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C429" t="s">
         <v>1048</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D429" t="s">
         <v>1048</v>
       </c>
-      <c r="E428" t="s">
+      <c r="E429" t="s">
         <v>1048</v>
       </c>
-      <c r="I428" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9">
-      <c r="A429" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B429" t="s">
+      <c r="G429" t="s">
+        <v>956</v>
+      </c>
+      <c r="H429" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="A430" t="s">
+        <v>474</v>
+      </c>
+      <c r="B430" t="s">
         <v>1049</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C430" t="s">
         <v>1049</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D430" t="s">
         <v>1049</v>
       </c>
-      <c r="E429" t="s">
+      <c r="E430" t="s">
         <v>1049</v>
       </c>
-      <c r="I429" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9">
-      <c r="A430" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B430" t="s">
+      <c r="G430" t="s">
+        <v>952</v>
+      </c>
+      <c r="H430" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431" t="s">
+        <v>474</v>
+      </c>
+      <c r="B431" t="s">
         <v>1050</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C431" t="s">
         <v>1050</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D431" t="s">
         <v>1050</v>
       </c>
-      <c r="E430" t="s">
+      <c r="E431" t="s">
         <v>1050</v>
       </c>
-      <c r="I430" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9">
-      <c r="A431" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B431" t="s">
+      <c r="G431" t="s">
+        <v>952</v>
+      </c>
+      <c r="H431" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" t="s">
+        <v>474</v>
+      </c>
+      <c r="B432" t="s">
         <v>1051</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C432" t="s">
         <v>1051</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D432" t="s">
         <v>1051</v>
       </c>
-      <c r="E431" t="s">
+      <c r="E432" t="s">
         <v>1051</v>
       </c>
-      <c r="I431" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9">
-      <c r="A432" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B432" t="s">
+      <c r="G432" t="s">
+        <v>955</v>
+      </c>
+      <c r="H432" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433" t="s">
+        <v>474</v>
+      </c>
+      <c r="B433" t="s">
         <v>1052</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C433" t="s">
         <v>1052</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D433" t="s">
         <v>1052</v>
       </c>
-      <c r="E432" t="s">
+      <c r="E433" t="s">
         <v>1052</v>
       </c>
-      <c r="I432" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9">
-      <c r="A433" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B433" t="s">
+      <c r="G433" t="s">
+        <v>955</v>
+      </c>
+      <c r="H433" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" t="s">
+        <v>474</v>
+      </c>
+      <c r="B434" t="s">
         <v>1053</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C434" t="s">
         <v>1053</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D434" t="s">
         <v>1053</v>
       </c>
-      <c r="E433" t="s">
+      <c r="E434" t="s">
         <v>1053</v>
       </c>
-      <c r="I433" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9">
-      <c r="A434" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B434" t="s">
+      <c r="G434" t="s">
+        <v>956</v>
+      </c>
+      <c r="H434" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" t="s">
+        <v>474</v>
+      </c>
+      <c r="B435" t="s">
         <v>1054</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C435" t="s">
         <v>1054</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D435" t="s">
         <v>1054</v>
       </c>
-      <c r="E434" t="s">
+      <c r="E435" t="s">
         <v>1054</v>
       </c>
-      <c r="I434" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9">
-      <c r="A435" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B435" t="s">
+      <c r="G435" t="s">
+        <v>953</v>
+      </c>
+      <c r="H435" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436" t="s">
+        <v>474</v>
+      </c>
+      <c r="B436" t="s">
         <v>1055</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C436" t="s">
         <v>1055</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D436" t="s">
         <v>1055</v>
       </c>
-      <c r="E435" t="s">
+      <c r="E436" t="s">
         <v>1055</v>
       </c>
-      <c r="I435" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9">
-      <c r="A436" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B436" t="s">
+      <c r="G436" t="s">
+        <v>952</v>
+      </c>
+      <c r="H436" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" t="s">
+        <v>474</v>
+      </c>
+      <c r="B437" t="s">
         <v>1056</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C437" t="s">
         <v>1056</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D437" t="s">
         <v>1056</v>
       </c>
-      <c r="E436" t="s">
+      <c r="E437" t="s">
         <v>1056</v>
       </c>
-      <c r="I436" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9">
-      <c r="A437" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B437" t="s">
+      <c r="G437" t="s">
+        <v>952</v>
+      </c>
+      <c r="H437" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" t="s">
+        <v>474</v>
+      </c>
+      <c r="B438" t="s">
         <v>1057</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C438" t="s">
         <v>1057</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D438" t="s">
         <v>1057</v>
       </c>
-      <c r="E437" t="s">
+      <c r="E438" t="s">
         <v>1057</v>
       </c>
-      <c r="I437" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9">
-      <c r="A438" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C438" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D438" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E438" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I438" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9">
-      <c r="A439" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B439" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C439" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D439" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E439" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I439" t="s">
-        <v>989</v>
+      <c r="G438" t="s">
+        <v>955</v>
+      </c>
+      <c r="H438" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="440" spans="1:9">
       <c r="A440" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B440" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C440" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D440" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E440" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I440" t="s">
-        <v>990</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="441" spans="1:9">
       <c r="A441" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B441" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C441" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D441" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E441" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I441" t="s">
-        <v>992</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="442" spans="1:9">
       <c r="A442" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B442" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C442" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D442" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E442" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I442" t="s">
-        <v>997</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="443" spans="1:9">
       <c r="A443" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B443" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C443" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D443" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E443" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I443" t="s">
-        <v>998</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="444" spans="1:9">
       <c r="A444" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B444" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C444" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D444" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E444" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I444" t="s">
-        <v>983</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="445" spans="1:9">
       <c r="A445" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B445" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C445" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D445" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E445" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I445" t="s">
-        <v>985</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="446" spans="1:9">
       <c r="A446" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B446" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C446" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D446" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E446" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I446" t="s">
-        <v>999</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="447" spans="1:9">
       <c r="A447" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B447" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C447" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D447" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E447" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I447" t="s">
-        <v>987</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="448" spans="1:9">
       <c r="A448" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B448" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C448" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D448" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E448" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I448" t="s">
-        <v>1001</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="449" spans="1:9">
       <c r="A449" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B449" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C449" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D449" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E449" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I449" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
     </row>
     <row r="450" spans="1:9">
       <c r="A450" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B450" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C450" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D450" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E450" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I450" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="451" spans="1:9">
       <c r="A451" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B451" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C451" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D451" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E451" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I451" t="s">
-        <v>1006</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="452" spans="1:9">
       <c r="A452" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B452" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C452" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D452" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E452" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I452" t="s">
-        <v>1007</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="453" spans="1:9">
       <c r="A453" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B453" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C453" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D453" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E453" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I453" t="s">
-        <v>1005</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="454" spans="1:9">
       <c r="A454" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B454" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C454" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D454" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E454" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I454" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="455" spans="1:9">
       <c r="A455" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B455" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C455" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D455" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E455" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I455" t="s">
-        <v>1012</v>
+        <v>987</v>
       </c>
     </row>
     <row r="456" spans="1:9">
       <c r="A456" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B456" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C456" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D456" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E456" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I456" t="s">
-        <v>986</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="457" spans="1:9">
       <c r="A457" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="B457" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C457" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D457" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E457" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I457" t="s">
         <v>1010</v>
@@ -13514,22 +13723,1082 @@
     </row>
     <row r="458" spans="1:9">
       <c r="A458" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I458" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
+      <c r="A459" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I459" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
+      <c r="A460" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I460" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
+      <c r="A461" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I461" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
+      <c r="A462" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E462" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I462" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I463" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
+      <c r="A464" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E464" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I464" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="A465" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I465" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
+      <c r="A466" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E466" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I466" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
+      <c r="A467" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I467" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
+      <c r="A468" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I468" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E469" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I469" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
+      <c r="A470" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E470" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I470" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
+      <c r="A471" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E471" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I471" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
+      <c r="A472" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E472" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I472" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
+      <c r="A473" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E473" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I473" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
+      <c r="A474" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I474" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I475" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="A476" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I476" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I477" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="A478" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I478" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I479" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I480" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I481" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
+      <c r="A482" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I482" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="A483" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I483" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I484" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I485" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I486" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I487" t="s">
         <v>1030</v>
       </c>
-      <c r="B458" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C458" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D458" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E458" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I458" t="s">
-        <v>1011</v>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I488" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I489" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="A490" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I490" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I491" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I492" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I493" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I494" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I495" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I496" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I497" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I498" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I499" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
+      <c r="A500" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I500" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I501" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I502" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
+      <c r="A503" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I503" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
+      <c r="A504" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I504" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I505" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
+      <c r="A506" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I506" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I507" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I508" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I509" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I510" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I511" t="s">
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -13557,33 +14826,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1079</v>
+        <v>1131</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1080</v>
+        <v>1132</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1081</v>
+        <v>1133</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1082</v>
+        <v>1134</v>
       </c>
       <c r="E1" t="s">
-        <v>1083</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1084</v>
+        <v>1136</v>
       </c>
       <c r="B2" t="s">
-        <v>1085</v>
+        <v>1137</v>
       </c>
       <c r="C2">
         <v>20210715</v>
       </c>
       <c r="D2" t="s">
-        <v>1086</v>
+        <v>1138</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>

--- a/SCH-STH/Baseline Mapping/Angola/September 2021/ao_sch_sth_baseline_2_child_kap_202109.xlsx
+++ b/SCH-STH/Baseline Mapping/Angola/September 2021/ao_sch_sth_baseline_2_child_kap_202109.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
     <t xml:space="preserve">Se "Não me lembro" for selecionado, nenhuma outra resposta será permitida. </t>
   </si>
   <si>
-    <t>selected(${p_consent}, '1.Sim') and (${p_school_med_lastyear} = '1.Sim' or ${p_side_effects_med} != '4.Nao' or ${p_side_effects_med} !='5.Nao.sei./.nao.se.lembra' or ${p_side_effects_med} != '6.Sem.resposta')</t>
+    <t>selected(${p_consent}, '1.Sim') and (${p_school_med_lastyear} = '1.Sim') and (selected(${p_side_effects_med},'1.Sim,.ao.medicamento.para.os.vermes.intestinais.lombrigas') or selected(${p_side_effects_med},'2.Sim,.ao.medicamento.para.a.Schistosomíase') or selected(${p_side_effects_med},'3.Sim,.mas.nao.sei.qual.medicamento'))</t>
   </si>
   <si>
     <t>p_side_effects_spec_other</t>
@@ -1122,7 +1122,7 @@
     <t>Pergunta apenas para crianças que não tomaram o medicamento (ou seja, respondeu "Não" à pergunta 26).</t>
   </si>
   <si>
-    <t>selected(${p_consent}, '1.Sim') and (${p_school_med_lastyear} = '2.No' or ${p_side_effects_med} != '4.Nao' or ${p_side_effects_med} !='5.Nao.sei./.nao.se.lembra' or ${p_side_effects_med} != '6.Sem.resposta')</t>
+    <t>selected(${p_consent}, '1.Sim') and selected(${p_school_med_lastyear} , '2.Nao')</t>
   </si>
   <si>
     <t>p_didnot_med_other</t>
@@ -3455,9 +3455,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -3522,9 +3522,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3539,45 +3606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3585,15 +3614,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3608,21 +3629,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3630,21 +3644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3683,13 +3683,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3701,61 +3731,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3773,13 +3767,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3791,43 +3803,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3839,13 +3845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3904,21 +3904,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3953,16 +3938,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3986,136 +3971,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4124,7 +4124,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4134,7 +4134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4164,6 +4164,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4490,19 +4493,19 @@
   <sheetPr/>
   <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K92" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="bottomRight" activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.2916666666667" customWidth="1"/>
+    <col min="1" max="1" width="28.8" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="73.7" customWidth="1"/>
+    <col min="3" max="3" width="53.1916666666667" customWidth="1"/>
     <col min="4" max="4" width="16.4083333333333" customWidth="1"/>
     <col min="5" max="5" width="163.116666666667" customWidth="1"/>
     <col min="6" max="6" width="35.7" customWidth="1"/>
@@ -4772,12 +4775,6 @@
       <c r="F18" t="s">
         <v>69</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
       <c r="M18" t="s">
         <v>20</v>
       </c>
@@ -6306,7 +6303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" ht="30" spans="1:13">
       <c r="A125" t="s">
         <v>353</v>
       </c>
@@ -6334,7 +6331,7 @@
       <c r="J125" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K125" s="15" t="s">
         <v>350</v>
       </c>
       <c r="M125" t="s">
@@ -6497,7 +6494,7 @@
       <c r="D138" t="s">
         <v>337</v>
       </c>
-      <c r="E138" s="17" t="s">
+      <c r="E138" s="18" t="s">
         <v>390</v>
       </c>
       <c r="F138" t="s">
@@ -6670,7 +6667,7 @@
       <c r="C148" t="s">
         <v>417</v>
       </c>
-      <c r="E148" s="17" t="s">
+      <c r="E148" s="18" t="s">
         <v>418</v>
       </c>
       <c r="K148" t="s">
@@ -6690,7 +6687,7 @@
       <c r="C150" t="s">
         <v>421</v>
       </c>
-      <c r="E150" s="17" t="s">
+      <c r="E150" s="18" t="s">
         <v>422</v>
       </c>
       <c r="K150" t="s">
@@ -6909,9 +6906,9 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="15"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="16"/>
+      <c r="A164" s="16"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="17"/>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" t="s">
@@ -7013,7 +7010,7 @@
       <c r="A174" t="s">
         <v>470</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="B174" s="16" t="s">
         <v>471</v>
       </c>
     </row>
@@ -7038,9 +7035,9 @@
   <dimension ref="A1:I511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A328" sqref="A328:I511"/>
+      <selection pane="bottomLeft" activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -14856,7 +14853,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/SCH-STH/Baseline Mapping/Angola/September 2021/ao_sch_sth_baseline_2_child_kap_202109.xlsx
+++ b/SCH-STH/Baseline Mapping/Angola/September 2021/ao_sch_sth_baseline_2_child_kap_202109.xlsx
@@ -1188,7 +1188,7 @@
     <t>40. Why would you take the medicine to kill intestinal worms (lombrigas) if there is future delivery of medicines in your school to all school children?</t>
   </si>
   <si>
-    <t>40. Ficaste satisfeito com o facto de os professores te terem dado o medicamento para matar as kimbevo ki subisanga omenga (Schistosomíase)?</t>
+    <t>40. Porque tomaria o medicamento para matar os vermes intestinais (lombrigas) se houver uma futura entrega de medicamentos na sua escola a todas as crianças da escola?</t>
   </si>
   <si>
     <t>if(selected(.,'Outros') or selected(.,'7.Nao.sei') or selected(.,'8.Sem.resposta'), count-selected(.)=1, true())</t>
@@ -3457,8 +3457,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3516,7 +3516,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3530,47 +3530,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3589,19 +3566,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3629,6 +3605,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3636,17 +3627,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3677,25 +3677,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3713,19 +3707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3737,7 +3725,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3749,31 +3827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3785,61 +3839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3889,39 +3889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3933,6 +3900,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3963,11 +3939,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3992,139 +3992,139 @@
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4494,11 +4494,11 @@
   <dimension ref="A1:P175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K125" sqref="K125"/>
+      <selection pane="bottomRight" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
